--- a/Team-Data/2014-15/12-20-2014-15.xlsx
+++ b/Team-Data/2014-15/12-20-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.731</v>
+        <v>0.72</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,13 +751,13 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
         <v>25</v>
@@ -705,64 +772,64 @@
         <v>22.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
         <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
         <v>25.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB2" t="n">
         <v>103</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>5</v>
@@ -774,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -783,10 +850,10 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>15</v>
@@ -807,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>20</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -965,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
@@ -1001,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>17</v>
@@ -1156,10 +1223,10 @@
         <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
@@ -1168,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>13</v>
@@ -1177,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.296</v>
+        <v>0.269</v>
       </c>
       <c r="H5" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J5" t="n">
         <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="O5" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S5" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T5" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U5" t="n">
         <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
         <v>4.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1308,10 +1375,10 @@
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1320,28 +1387,28 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
         <v>14</v>
@@ -1359,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>3.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1484,25 +1551,25 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1532,7 +1599,7 @@
         <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1675,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
@@ -1690,19 +1757,19 @@
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1711,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>22</v>
@@ -1723,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.741</v>
+        <v>0.704</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,19 +1843,19 @@
         <v>41.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.479</v>
+        <v>0.481</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>17.9</v>
@@ -1797,19 +1864,19 @@
         <v>23.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R8" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>12.1</v>
@@ -1824,7 +1891,7 @@
         <v>3.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>22.6</v>
@@ -1833,22 +1900,22 @@
         <v>110.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1857,31 +1924,31 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>17</v>
@@ -1890,19 +1957,19 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M9" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
         <v>14.9</v>
@@ -2000,58 +2067,58 @@
         <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.2</v>
+        <v>103.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>18</v>
@@ -2078,19 +2145,19 @@
         <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,13 +2279,13 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -2236,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2260,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2269,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB10" t="n">
         <v>27</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2412,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2421,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -2489,55 +2556,55 @@
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J12" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L12" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>34.3</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O12" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.712</v>
       </c>
       <c r="R12" t="n">
         <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U12" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V12" t="n">
         <v>17.2</v>
@@ -2549,31 +2616,31 @@
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2582,10 +2649,10 @@
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,52 +2661,52 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296</v>
+        <v>0.308</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>84.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R13" t="n">
         <v>11.7</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
         <v>14.5</v>
@@ -2728,46 +2795,46 @@
         <v>5.4</v>
       </c>
       <c r="X13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
         <v>20.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-3.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
@@ -2788,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2800,25 +2867,25 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>19</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.704</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
         <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M14" t="n">
         <v>25.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
         <v>19</v>
       </c>
       <c r="P14" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S14" t="n">
         <v>31.5</v>
@@ -2901,40 +2968,40 @@
         <v>39.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
         <v>12.7</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
@@ -2958,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
@@ -2985,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -2994,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.32</v>
+        <v>0.308</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>87</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>11.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>3.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3122,16 +3189,16 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,34 +3207,34 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU15" t="n">
         <v>22</v>
       </c>
-      <c r="AT15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>21</v>
-      </c>
       <c r="AV15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3176,16 +3243,16 @@
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>6.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3331,22 +3398,22 @@
         <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>10</v>
@@ -3355,16 +3422,16 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3495,13 +3562,13 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
@@ -3513,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
         <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P18" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.777</v>
+        <v>0.783</v>
       </c>
       <c r="R18" t="n">
         <v>10.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="U18" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3665,19 +3732,19 @@
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3689,46 +3756,46 @@
         <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>27</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3886,13 +3953,13 @@
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3901,10 +3968,10 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -3945,106 +4012,106 @@
         <v>25</v>
       </c>
       <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
         <v>12</v>
       </c>
-      <c r="F20" t="n">
-        <v>13</v>
-      </c>
       <c r="G20" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="J20" t="n">
-        <v>84.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.74</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.6</v>
+        <v>103.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4053,50 +4120,50 @@
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>14</v>
       </c>
       <c r="AU20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC20" t="n">
         <v>14</v>
       </c>
-      <c r="AV20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>16</v>
-      </c>
       <c r="BD20" t="n">
         <v>10</v>
       </c>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.172</v>
+        <v>0.179</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L21" t="n">
         <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
         <v>13.8</v>
       </c>
       <c r="P21" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>28.4</v>
       </c>
       <c r="T21" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="U21" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V21" t="n">
         <v>15.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4190,25 +4257,25 @@
         <v>3.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>29</v>
@@ -4220,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
@@ -4244,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>3</v>
@@ -4271,13 +4338,13 @@
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -4384,46 +4451,46 @@
         <v>1.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF22" t="n">
         <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>9</v>
@@ -4432,31 +4499,31 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB22" t="n">
         <v>22</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>21</v>
       </c>
       <c r="BC22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -4488,91 +4555,91 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>0.357</v>
+        <v>0.345</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.377</v>
       </c>
       <c r="O23" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="P23" t="n">
         <v>18.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4596,7 +4663,7 @@
         <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,40 +4672,40 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
@@ -4799,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.481</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>85.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
         <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O25" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
         <v>21.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
@@ -4900,16 +4967,16 @@
         <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>4.4</v>
@@ -4918,49 +4985,49 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="AA25" t="n">
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
         <v>13</v>
       </c>
-      <c r="AF25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16</v>
-      </c>
       <c r="AI25" t="n">
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
@@ -4981,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -4990,22 +5057,22 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -5034,49 +5101,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.782</v>
       </c>
       <c r="R26" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S26" t="n">
         <v>35.2</v>
@@ -5085,37 +5152,37 @@
         <v>47</v>
       </c>
       <c r="U26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
         <v>5.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.7</v>
+        <v>103.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="n">
         <v>2</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5124,22 +5191,22 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN26" t="n">
         <v>9</v>
@@ -5151,10 +5218,10 @@
         <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5169,10 +5236,10 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-0.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -5401,58 +5468,58 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.593</v>
+        <v>0.63</v>
       </c>
       <c r="H28" t="n">
         <v>49.5</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5467,64 +5534,64 @@
         <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.2</v>
+        <v>102.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF28" t="n">
         <v>11</v>
       </c>
-      <c r="AF28" t="n">
-        <v>12</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
       </c>
       <c r="AK28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO28" t="n">
         <v>15</v>
       </c>
-      <c r="AL28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>12</v>
-      </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5536,7 +5603,7 @@
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,10 +5612,10 @@
         <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF29" t="n">
         <v>3</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,43 +5755,43 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY29" t="n">
         <v>20</v>
       </c>
-      <c r="AU29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J30" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="L30" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P30" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
         <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X30" t="n">
         <v>5.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.2</v>
+        <v>-4.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5858,61 +5925,61 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>23</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
         <v>4</v>
       </c>
       <c r="BA30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6092,7 @@
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
         <v>3</v>
@@ -6058,16 +6125,16 @@
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
         <v>12</v>
@@ -6076,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6091,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-20-2014-15</t>
+          <t>2014-12-20</t>
         </is>
       </c>
     </row>
